--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H2">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I2">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J2">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N2">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O2">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P2">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q2">
-        <v>2097.75450490539</v>
+        <v>2072.935747135282</v>
       </c>
       <c r="R2">
-        <v>18879.79054414851</v>
+        <v>18656.42172421754</v>
       </c>
       <c r="S2">
-        <v>0.003085691519936083</v>
+        <v>0.003114478500338132</v>
       </c>
       <c r="T2">
-        <v>0.003129431280528534</v>
+        <v>0.003204044611571695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H3">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I3">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J3">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P3">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q3">
-        <v>3.090057015091889</v>
+        <v>3.693880192646889</v>
       </c>
       <c r="R3">
-        <v>27.81051313582701</v>
+        <v>33.244921733822</v>
       </c>
       <c r="S3">
-        <v>4.545318675417683E-06</v>
+        <v>5.549863500941794E-06</v>
       </c>
       <c r="T3">
-        <v>4.609748690341304E-06</v>
+        <v>5.709466365948723E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H4">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I4">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J4">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N4">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O4">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P4">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q4">
-        <v>582.1938906004308</v>
+        <v>784.4811651347055</v>
       </c>
       <c r="R4">
-        <v>5239.745015403877</v>
+        <v>7060.330486212349</v>
       </c>
       <c r="S4">
-        <v>0.0008563779732010952</v>
+        <v>0.001178642283586804</v>
       </c>
       <c r="T4">
-        <v>0.0008685171540888984</v>
+        <v>0.001212537655112039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H5">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I5">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J5">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N5">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O5">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P5">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q5">
-        <v>46.37875441374567</v>
+        <v>36.87614049217434</v>
       </c>
       <c r="R5">
-        <v>278.2725264824741</v>
+        <v>221.256842953046</v>
       </c>
       <c r="S5">
-        <v>6.822081843468502E-05</v>
+        <v>5.540448945272114E-05</v>
       </c>
       <c r="T5">
-        <v>4.612523358506542E-05</v>
+        <v>3.799854044448624E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H6">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I6">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J6">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N6">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O6">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P6">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q6">
-        <v>827.2531875941244</v>
+        <v>1064.471889159619</v>
       </c>
       <c r="R6">
-        <v>7445.278688347119</v>
+        <v>9580.247002436576</v>
       </c>
       <c r="S6">
-        <v>0.001216847891319108</v>
+        <v>0.001599313831884819</v>
       </c>
       <c r="T6">
-        <v>0.001234096743027016</v>
+        <v>0.001645306867492039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J7">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N7">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O7">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P7">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q7">
-        <v>386796.339567576</v>
+        <v>319740.1845418805</v>
       </c>
       <c r="R7">
-        <v>3481167.056108184</v>
+        <v>2877661.660876925</v>
       </c>
       <c r="S7">
-        <v>0.5689579891998925</v>
+        <v>0.480393052136818</v>
       </c>
       <c r="T7">
-        <v>0.5770229840556587</v>
+        <v>0.4942081860473093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J8">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P8">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q8">
         <v>569.7629249265075</v>
@@ -948,10 +948,10 @@
         <v>5127.866324338567</v>
       </c>
       <c r="S8">
-        <v>0.0008380926470225814</v>
+        <v>0.0008560392585374086</v>
       </c>
       <c r="T8">
-        <v>0.0008499726329181971</v>
+        <v>0.0008806572186363898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J9">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N9">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O9">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P9">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q9">
-        <v>107348.3409408808</v>
+        <v>121002.3768736864</v>
       </c>
       <c r="R9">
-        <v>966135.068467927</v>
+        <v>1089021.391863178</v>
       </c>
       <c r="S9">
-        <v>0.1579040181040739</v>
+        <v>0.1817997985628418</v>
       </c>
       <c r="T9">
-        <v>0.1601423118232728</v>
+        <v>0.1870279935812216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J10">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N10">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O10">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P10">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q10">
-        <v>8551.588090499394</v>
+        <v>5687.964029977556</v>
       </c>
       <c r="R10">
-        <v>51309.52854299636</v>
+        <v>34127.78417986533</v>
       </c>
       <c r="S10">
-        <v>0.01257895658959887</v>
+        <v>0.008545871094433697</v>
       </c>
       <c r="T10">
-        <v>0.008504842425881174</v>
+        <v>0.005861088724449131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J11">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N11">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O11">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P11">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q11">
-        <v>152533.8184753167</v>
+        <v>164189.5744959282</v>
       </c>
       <c r="R11">
-        <v>1372804.36627785</v>
+        <v>1477706.170463353</v>
       </c>
       <c r="S11">
-        <v>0.2243695861799529</v>
+        <v>0.246686324192113</v>
       </c>
       <c r="T11">
-        <v>0.2275500311208464</v>
+        <v>0.2537805246336928</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H12">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I12">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J12">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N12">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O12">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P12">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q12">
-        <v>229.672932812752</v>
+        <v>177.6712230653878</v>
       </c>
       <c r="R12">
-        <v>2067.056395314768</v>
+        <v>1599.04100758849</v>
       </c>
       <c r="S12">
-        <v>0.0003378373491664227</v>
+        <v>0.0002669418022872361</v>
       </c>
       <c r="T12">
-        <v>0.0003426262027106791</v>
+        <v>0.0002746185093680366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H13">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I13">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J13">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P13">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q13">
-        <v>0.338315305988</v>
+        <v>0.3166022934341112</v>
       </c>
       <c r="R13">
-        <v>3.044837753892</v>
+        <v>2.849420640907001</v>
       </c>
       <c r="S13">
-        <v>4.976448236962956E-07</v>
+        <v>4.756785334137675E-07</v>
       </c>
       <c r="T13">
-        <v>5.046989525059699E-07</v>
+        <v>4.893580872878849E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H14">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I14">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J14">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N14">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O14">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P14">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q14">
-        <v>63.741576055344</v>
+        <v>67.23784288724869</v>
       </c>
       <c r="R14">
-        <v>573.674184498096</v>
+        <v>605.1405859852381</v>
       </c>
       <c r="S14">
-        <v>9.376065704609537E-05</v>
+        <v>0.0001010213733690718</v>
       </c>
       <c r="T14">
-        <v>9.508971689076581E-05</v>
+        <v>0.0001039265440302786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H15">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I15">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J15">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N15">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O15">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P15">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q15">
-        <v>5.077784136084</v>
+        <v>3.160652225825168</v>
       </c>
       <c r="R15">
-        <v>30.466704816504</v>
+        <v>18.963913354951</v>
       </c>
       <c r="S15">
-        <v>7.469165439588473E-06</v>
+        <v>4.748716123006742E-06</v>
       </c>
       <c r="T15">
-        <v>5.050027374215079E-06</v>
+        <v>3.256853071688999E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H16">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I16">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J16">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N16">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O16">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P16">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q16">
-        <v>90.57192599474801</v>
+        <v>91.23583436055769</v>
       </c>
       <c r="R16">
-        <v>815.1473339527321</v>
+        <v>821.1225092450192</v>
       </c>
       <c r="S16">
-        <v>0.000133226754290239</v>
+        <v>0.0001370771115163869</v>
       </c>
       <c r="T16">
-        <v>0.0001351152471287212</v>
+        <v>0.0001410191723835013</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H17">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I17">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J17">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N17">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O17">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P17">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q17">
-        <v>11634.9425542317</v>
+        <v>26040.70050067155</v>
       </c>
       <c r="R17">
-        <v>69809.65532539019</v>
+        <v>156244.2030040293</v>
       </c>
       <c r="S17">
-        <v>0.01711441614859286</v>
+        <v>0.03912480256812952</v>
       </c>
       <c r="T17">
-        <v>0.01157134230633194</v>
+        <v>0.02683330191204552</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H18">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I18">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J18">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P18">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q18">
-        <v>17.1386288413745</v>
+        <v>46.4033812504865</v>
       </c>
       <c r="R18">
-        <v>102.831773048247</v>
+        <v>278.420287502919</v>
       </c>
       <c r="S18">
-        <v>2.521006226205025E-05</v>
+        <v>6.971867480569915E-05</v>
       </c>
       <c r="T18">
-        <v>1.704494371676881E-05</v>
+        <v>4.78157620530195E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H19">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I19">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J19">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N19">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O19">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P19">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q19">
-        <v>3229.068252133807</v>
+        <v>9854.834670067341</v>
       </c>
       <c r="R19">
-        <v>19374.40951280284</v>
+        <v>59129.00802040404</v>
       </c>
       <c r="S19">
-        <v>0.004749797223461806</v>
+        <v>0.01480637822312035</v>
       </c>
       <c r="T19">
-        <v>0.003211417151549193</v>
+        <v>0.01015478650385734</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H20">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I20">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J20">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N20">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O20">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P20">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q20">
-        <v>257.2341721011285</v>
+        <v>463.2466450079168</v>
       </c>
       <c r="R20">
-        <v>1028.936688404514</v>
+        <v>1852.986580031667</v>
       </c>
       <c r="S20">
-        <v>0.0003783785479350119</v>
+        <v>0.0006960040696991127</v>
       </c>
       <c r="T20">
-        <v>0.000170552032918316</v>
+        <v>0.0003182309959984638</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H21">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I21">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J21">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N21">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O21">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P21">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q21">
-        <v>4588.260110015491</v>
+        <v>13372.14320091547</v>
       </c>
       <c r="R21">
-        <v>27529.56066009294</v>
+        <v>80232.85920549283</v>
       </c>
       <c r="S21">
-        <v>0.006749100182899776</v>
+        <v>0.02009095195557743</v>
       </c>
       <c r="T21">
-        <v>0.004563179240121603</v>
+        <v>0.01377915143688313</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H22">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I22">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J22">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N22">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O22">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P22">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q22">
-        <v>212.5067340226653</v>
+        <v>162.7479422846878</v>
       </c>
       <c r="R22">
-        <v>1912.560606203988</v>
+        <v>1464.73148056219</v>
       </c>
       <c r="S22">
-        <v>0.0003125867328944789</v>
+        <v>0.0002445203465280643</v>
       </c>
       <c r="T22">
-        <v>0.0003170176582714474</v>
+        <v>0.0002515522578267374</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H23">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I23">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J23">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.869893</v>
       </c>
       <c r="O23">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P23">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q23">
-        <v>0.3130289662996666</v>
+        <v>0.2900096644241111</v>
       </c>
       <c r="R23">
-        <v>2.817260696697</v>
+        <v>2.610086979817</v>
       </c>
       <c r="S23">
-        <v>4.604498879857261E-07</v>
+        <v>4.357244868720112E-07</v>
       </c>
       <c r="T23">
-        <v>4.669767775776365E-07</v>
+        <v>4.482550430643655E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H24">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I24">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J24">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N24">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O24">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P24">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q24">
-        <v>58.977407494604</v>
+        <v>61.59028110890866</v>
       </c>
       <c r="R24">
-        <v>530.7966674514361</v>
+        <v>554.3125299801779</v>
       </c>
       <c r="S24">
-        <v>8.675280436693521E-05</v>
+        <v>9.253620456329525E-05</v>
       </c>
       <c r="T24">
-        <v>8.798252771070358E-05</v>
+        <v>9.5197358907481E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H25">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I25">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J25">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N25">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O25">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P25">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q25">
-        <v>4.698260738069</v>
+        <v>2.895177041930166</v>
       </c>
       <c r="R25">
-        <v>28.189564428414</v>
+        <v>17.371062251581</v>
       </c>
       <c r="S25">
-        <v>6.910905582139124E-06</v>
+        <v>4.34985342127712E-06</v>
       </c>
       <c r="T25">
-        <v>4.672578570215907E-06</v>
+        <v>2.983297613400669E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H26">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I26">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J26">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N26">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O26">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P26">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q26">
-        <v>83.80240523587635</v>
+        <v>83.57259013938766</v>
       </c>
       <c r="R26">
-        <v>754.2216471228871</v>
+        <v>752.1533112544889</v>
       </c>
       <c r="S26">
-        <v>0.0001232691292436306</v>
+        <v>0.0001255634843320143</v>
       </c>
       <c r="T26">
-        <v>0.0001250164724782739</v>
+        <v>0.0001291744365358372</v>
       </c>
     </row>
   </sheetData>
